--- a/documenten/Database ERD.xlsx
+++ b/documenten/Database ERD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12645"/>
@@ -54,9 +54,6 @@
     <t>topics</t>
   </si>
   <si>
-    <t>user_id (FK)</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>users_id(FK)</t>
-  </si>
-  <si>
     <t>thema_id(FK)</t>
   </si>
   <si>
@@ -79,6 +73,12 @@
   </si>
   <si>
     <t>topic_id(FK)</t>
+  </si>
+  <si>
+    <t>author (FK)</t>
+  </si>
+  <si>
+    <t>author(FK)</t>
   </si>
 </sst>
 </file>
@@ -396,129 +396,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H5:L25"/>
+  <dimension ref="D5:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
+    <row r="5" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
         <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
         <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
         <v>2</v>
       </c>
       <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
+      <c r="R10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
         <v>5</v>
       </c>
       <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H13" t="s">
+    <row r="13" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H25" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
